--- a/Source/CalcsAndModels/[IN DEVELOPMENT] Tanks for Mods/ModTanks.xlsx
+++ b/Source/CalcsAndModels/[IN DEVELOPMENT] Tanks for Mods/ModTanks.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="2180" yWindow="100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Mass</t>
   </si>
@@ -157,13 +157,79 @@
   </si>
   <si>
     <t>Ttl/T</t>
+  </si>
+  <si>
+    <t>Kethane</t>
+  </si>
+  <si>
+    <t>tank1mStandard</t>
+  </si>
+  <si>
+    <t>KE-TL80</t>
+  </si>
+  <si>
+    <t>tank2mExtraLarge</t>
+  </si>
+  <si>
+    <t>KE-TL40</t>
+  </si>
+  <si>
+    <t>tank2mLarge</t>
+  </si>
+  <si>
+    <t>KE-TL20</t>
+  </si>
+  <si>
+    <t>KE-TL10</t>
+  </si>
+  <si>
+    <t>tank2mMedium</t>
+  </si>
+  <si>
+    <t>tank2mSmall</t>
+  </si>
+  <si>
+    <t>KE-TM30</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>FNMethaneTank3-1</t>
+  </si>
+  <si>
+    <t>Z200-37 Methane Tank</t>
+  </si>
+  <si>
+    <t>Rsc2/m^3</t>
+  </si>
+  <si>
+    <t>FNMethaneTank3-2</t>
+  </si>
+  <si>
+    <t>Ultra-75 Methane Tank</t>
+  </si>
+  <si>
+    <t>FNHeliumCryostat</t>
+  </si>
+  <si>
+    <t>Helium Cryostat</t>
+  </si>
+  <si>
+    <t>FNAmmoniaTank</t>
+  </si>
+  <si>
+    <t>Ammonia Storage Tank</t>
+  </si>
+  <si>
+    <t>rad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,16 +261,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -370,8 +473,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,44 +583,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -516,6 +710,21 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -551,6 +760,21 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -880,1553 +1104,2404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="20.83203125" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27" ht="16" thickBot="1">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="2" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="16" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="26"/>
+    </row>
+    <row r="2" spans="1:27" ht="16" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16" thickBot="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:27" ht="16" thickBot="1">
+      <c r="A3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="19"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="B3" s="28"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="16"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>0.625</v>
       </c>
-      <c r="D4" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="E4" s="11">
         <v>0.02</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="21">
+      <c r="F4" s="9"/>
+      <c r="G4" s="12">
         <v>30</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="9">
         <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>0.2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="11">
         <v>0.2</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>1</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>12</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>500</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <v>500</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <v>3200</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="8">
         <f>PI()*(0.5*C4)*(0.5*C4)*D4</f>
-        <v>7.6699039394282062E-2</v>
-      </c>
-      <c r="U4" s="20">
+        <v>3.8349519697141031E-2</v>
+      </c>
+      <c r="U4" s="11">
         <f>E4/$T4</f>
-        <v>0.26075945876176132</v>
-      </c>
-      <c r="V4" s="20">
+        <v>0.52151891752352264</v>
+      </c>
+      <c r="V4" s="11">
         <f>G4/$T4</f>
-        <v>391.13918814264196</v>
-      </c>
-      <c r="W4" s="15">
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="9">
         <f>K4/$T4</f>
-        <v>782.27837628528391</v>
-      </c>
-      <c r="X4" s="20">
+        <v>1564.5567525705678</v>
+      </c>
+      <c r="Y4" s="11">
         <f>G4/E4</f>
         <v>1500</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Z4" s="11">
         <f>G4/E4</f>
         <v>1500</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="AA4" s="9">
         <f>K4/E4</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>1.25</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="9">
         <v>0.25</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="21">
+      <c r="F5" s="9"/>
+      <c r="G5" s="12">
         <v>240</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="9">
         <v>480</v>
       </c>
       <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>0.2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="11">
         <v>0.2</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>1</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>12</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>500</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <v>500</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <v>3200</v>
       </c>
-      <c r="T5" s="14">
-        <f t="shared" ref="T5:T15" si="0">PI()*(0.5*C5)*(0.5*C5)*D5</f>
+      <c r="T5" s="8">
+        <f t="shared" ref="T5:T34" si="0">PI()*(0.5*C5)*(0.5*C5)*D5</f>
         <v>0.30679615757712825</v>
       </c>
-      <c r="U5" s="20">
-        <f t="shared" ref="U5:U15" si="1">E5/$T5</f>
+      <c r="U5" s="11">
+        <f t="shared" ref="U5:U34" si="1">E5/$T5</f>
         <v>0.22816452641654117</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="11">
         <f t="shared" ref="V5:V6" si="2">G5/$T5</f>
         <v>782.27837628528391</v>
       </c>
-      <c r="W5" s="15">
-        <f t="shared" ref="W5:W15" si="3">K5/$T5</f>
+      <c r="W5" s="11"/>
+      <c r="X5" s="9">
+        <f t="shared" ref="X5:X15" si="3">K5/$T5</f>
         <v>1564.5567525705678</v>
       </c>
-      <c r="X5" s="20">
-        <f t="shared" ref="X5:Y6" si="4">G5/E5</f>
+      <c r="Y5" s="11">
+        <f t="shared" ref="Y5:Y6" si="4">G5/E5</f>
         <v>3428.5714285714284</v>
       </c>
-      <c r="Y5" s="20">
-        <f t="shared" ref="Y5:Y6" si="5">G5/E5</f>
+      <c r="Z5" s="11">
+        <f t="shared" ref="Z5:Z6" si="5">G5/E5</f>
         <v>3428.5714285714284</v>
       </c>
-      <c r="Z5" s="15">
-        <f t="shared" ref="Z5:Z6" si="6">K5/E5</f>
+      <c r="AA5" s="9">
+        <f t="shared" ref="AA5:AA6" si="6">K5/E5</f>
         <v>6857.1428571428569</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>2.5</v>
       </c>
-      <c r="D6" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="11">
         <v>0.15</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="21">
+      <c r="F6" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="12">
         <v>1920</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="9">
         <v>3840</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>0.2</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="11">
         <v>0.2</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>1</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>12</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>500</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <v>500</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="12">
         <v>3200</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="8">
         <f t="shared" si="0"/>
-        <v>1.227184630308513</v>
-      </c>
-      <c r="U6" s="20">
+        <v>2.454369260617026</v>
+      </c>
+      <c r="U6" s="11">
         <f t="shared" si="1"/>
-        <v>0.12223099629457561</v>
-      </c>
-      <c r="V6" s="20">
+        <v>6.1115498147287804E-2</v>
+      </c>
+      <c r="V6" s="11">
         <f t="shared" si="2"/>
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="9">
+        <f t="shared" si="3"/>
         <v>1564.5567525705678</v>
       </c>
-      <c r="W6" s="15">
-        <f t="shared" si="3"/>
-        <v>3129.1135051411356</v>
-      </c>
-      <c r="X6" s="20">
+      <c r="Y6" s="11">
         <f t="shared" si="4"/>
         <v>12800</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Z6" s="11">
         <f t="shared" si="5"/>
         <v>12800</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="AA6" s="9">
         <f t="shared" si="6"/>
         <v>25600</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>0.625</v>
       </c>
-      <c r="D7" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="E7" s="11">
         <v>0.02</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21">
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12">
         <v>30</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="9">
         <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>0.2</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="11">
         <v>0.2</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>1</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>12</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>500</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="9">
         <v>500</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>3200</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="8">
         <f t="shared" si="0"/>
-        <v>7.6699039394282062E-2</v>
-      </c>
-      <c r="U7" s="20">
+        <v>3.8349519697141031E-2</v>
+      </c>
+      <c r="U7" s="11">
         <f t="shared" si="1"/>
-        <v>0.26075945876176132</v>
-      </c>
-      <c r="V7" s="20">
+        <v>0.52151891752352264</v>
+      </c>
+      <c r="V7" s="11">
         <f>H7/$T7</f>
-        <v>391.13918814264196</v>
-      </c>
-      <c r="W7" s="15">
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="9">
         <f t="shared" si="3"/>
-        <v>782.27837628528391</v>
-      </c>
-      <c r="X7" s="20">
+        <v>1564.5567525705678</v>
+      </c>
+      <c r="Y7" s="11">
         <v>1500</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Z7" s="11">
         <v>1500</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="AA7" s="9">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>1.25</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="9">
         <v>0.25</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21">
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12">
         <v>240</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="9">
         <v>480</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>0.2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="11">
         <v>0.2</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>1</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>12</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <v>500</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <v>500</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>3200</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="8">
         <f t="shared" si="0"/>
         <v>0.30679615757712825</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="11">
         <f t="shared" si="1"/>
         <v>0.22816452641654117</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="11">
         <f t="shared" ref="V8:V9" si="7">H8/$T8</f>
         <v>782.27837628528391</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="11"/>
+      <c r="X8" s="9">
         <f t="shared" si="3"/>
         <v>1564.5567525705678</v>
       </c>
-      <c r="X8" s="20">
+      <c r="Y8" s="11">
         <v>3428.57143</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Z8" s="11">
         <v>3428.57143</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="AA8" s="9">
         <v>6857.14</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>2.5</v>
       </c>
-      <c r="D9" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="11">
         <v>0.15</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21">
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12">
         <v>1920</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="9">
         <v>3840</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>0.2</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="11">
         <v>0.2</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>1</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>12</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>500</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <v>500</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <v>3200</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="8">
         <f t="shared" si="0"/>
-        <v>1.227184630308513</v>
-      </c>
-      <c r="U9" s="20">
+        <v>2.454369260617026</v>
+      </c>
+      <c r="U9" s="11">
         <f t="shared" si="1"/>
-        <v>0.12223099629457561</v>
-      </c>
-      <c r="V9" s="20">
+        <v>6.1115498147287804E-2</v>
+      </c>
+      <c r="V9" s="11">
         <f t="shared" si="7"/>
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="9">
+        <f t="shared" si="3"/>
         <v>1564.5567525705678</v>
       </c>
-      <c r="W9" s="15">
-        <f t="shared" si="3"/>
-        <v>3129.1135051411356</v>
-      </c>
-      <c r="X9" s="20">
+      <c r="Y9" s="11">
         <v>12800</v>
       </c>
-      <c r="Y9" s="20">
+      <c r="Z9" s="11">
         <v>12800</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="AA9" s="9">
         <v>25600</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>0.625</v>
       </c>
-      <c r="D10" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.02</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21">
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
         <v>30</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="9">
         <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>0.2</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="11">
         <v>0.2</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>1</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <v>12</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <v>500</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="9">
         <v>500</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <v>3200</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="8">
         <f t="shared" si="0"/>
-        <v>7.6699039394282062E-2</v>
-      </c>
-      <c r="U10" s="20">
+        <v>3.8349519697141031E-2</v>
+      </c>
+      <c r="U10" s="11">
         <f t="shared" si="1"/>
-        <v>0.26075945876176132</v>
-      </c>
-      <c r="V10" s="20">
+        <v>0.52151891752352264</v>
+      </c>
+      <c r="V10" s="11">
         <f>I10/$T10</f>
-        <v>391.13918814264196</v>
-      </c>
-      <c r="W10" s="15">
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W10" s="11"/>
+      <c r="X10" s="9">
         <f t="shared" si="3"/>
-        <v>782.27837628528391</v>
-      </c>
-      <c r="X10" s="20">
+        <v>1564.5567525705678</v>
+      </c>
+      <c r="Y10" s="11">
         <v>1500</v>
       </c>
-      <c r="Y10" s="20">
+      <c r="Z10" s="11">
         <v>1500</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="AA10" s="9">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>1.25</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="9">
         <v>0.25</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21">
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
         <v>240</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="9">
         <v>480</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>0.2</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="11">
         <v>0.2</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>1</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <v>12</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="8">
         <v>500</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <v>500</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="12">
         <v>3200</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="8">
         <f t="shared" si="0"/>
         <v>0.30679615757712825</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="11">
         <f t="shared" si="1"/>
         <v>0.22816452641654117</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="11">
         <f t="shared" ref="V11:V12" si="8">I11/$T11</f>
         <v>782.27837628528391</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="11"/>
+      <c r="X11" s="9">
         <f t="shared" si="3"/>
         <v>1564.5567525705678</v>
       </c>
-      <c r="X11" s="20">
+      <c r="Y11" s="11">
         <v>3428.57143</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Z11" s="11">
         <v>3428.57143</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="AA11" s="9">
         <v>6857.14</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="8">
         <v>2.5</v>
       </c>
-      <c r="D12" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="11">
         <v>0.15</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21">
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>1920</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="9">
         <v>3840</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>0.2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="11">
         <v>0.2</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>1</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <v>12</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>500</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="9">
         <v>500</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="12">
         <v>3200</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="8">
         <f t="shared" si="0"/>
-        <v>1.227184630308513</v>
-      </c>
-      <c r="U12" s="20">
+        <v>2.454369260617026</v>
+      </c>
+      <c r="U12" s="11">
         <f t="shared" si="1"/>
-        <v>0.12223099629457561</v>
-      </c>
-      <c r="V12" s="20">
+        <v>6.1115498147287804E-2</v>
+      </c>
+      <c r="V12" s="11">
         <f t="shared" si="8"/>
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W12" s="11"/>
+      <c r="X12" s="9">
+        <f t="shared" si="3"/>
         <v>1564.5567525705678</v>
       </c>
-      <c r="W12" s="15">
-        <f t="shared" si="3"/>
-        <v>3129.1135051411356</v>
-      </c>
-      <c r="X12" s="20">
+      <c r="Y12" s="11">
         <v>12800</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Z12" s="11">
         <v>12800</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="AA12" s="9">
         <v>25600</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <v>0.625</v>
       </c>
-      <c r="D13" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="11">
         <v>0.02</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="21">
+      <c r="F13" s="9"/>
+      <c r="G13" s="12">
         <v>10</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="12">
         <v>10</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="12">
         <v>10</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="9">
         <v>60</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>0.2</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="11">
         <v>0.2</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>1</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <v>12</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="8">
         <v>500</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="9">
         <v>500</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <v>3200</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="8">
         <f t="shared" si="0"/>
-        <v>7.6699039394282062E-2</v>
-      </c>
-      <c r="U13" s="20">
+        <v>3.8349519697141031E-2</v>
+      </c>
+      <c r="U13" s="11">
         <f t="shared" si="1"/>
-        <v>0.26075945876176132</v>
-      </c>
-      <c r="V13" s="20">
+        <v>0.52151891752352264</v>
+      </c>
+      <c r="V13" s="11">
         <f>(G13+H13+I13)/$T13</f>
-        <v>391.13918814264196</v>
-      </c>
-      <c r="W13" s="15">
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W13" s="11"/>
+      <c r="X13" s="9">
         <f t="shared" si="3"/>
-        <v>782.27837628528391</v>
-      </c>
-      <c r="X13" s="20">
+        <v>1564.5567525705678</v>
+      </c>
+      <c r="Y13" s="11">
         <v>1500</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Z13" s="11">
         <v>1500</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="AA13" s="9">
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="8">
         <v>1.25</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="9">
         <v>0.25</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="21">
+      <c r="F14" s="9"/>
+      <c r="G14" s="12">
         <v>80</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="12">
         <v>80</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="12">
         <v>80</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="9">
         <v>480</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>0.2</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="11">
         <v>0.2</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>1</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <v>12</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="8">
         <v>500</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="9">
         <v>500</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="12">
         <v>3200</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="8">
         <f t="shared" si="0"/>
         <v>0.30679615757712825</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="11">
         <f t="shared" si="1"/>
         <v>0.22816452641654117</v>
       </c>
-      <c r="V14" s="20">
-        <f t="shared" ref="V14:V15" si="9">(G14+H14+I14)/$T14</f>
+      <c r="V14" s="11">
+        <f>(G14+H14+I14)/$T14</f>
         <v>782.27837628528391</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="11"/>
+      <c r="X14" s="9">
         <f t="shared" si="3"/>
         <v>1564.5567525705678</v>
       </c>
-      <c r="X14" s="20">
+      <c r="Y14" s="11">
         <v>3428.57143</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Z14" s="11">
         <v>3428.57143</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="AA14" s="9">
         <v>6857.14</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27" ht="16" thickBot="1">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="8">
         <v>2.5</v>
       </c>
-      <c r="D15" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="D15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.15</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="21">
+      <c r="F15" s="9"/>
+      <c r="G15" s="12">
         <v>640</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="12">
         <v>640</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="12">
         <v>640</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="9">
         <v>3840</v>
       </c>
       <c r="L15" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>0.2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="11">
         <v>0.2</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>1</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>12</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="8">
         <v>500</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="9">
         <v>500</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="12">
         <v>3200</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="8">
         <f t="shared" si="0"/>
-        <v>1.227184630308513</v>
-      </c>
-      <c r="U15" s="20">
+        <v>2.454369260617026</v>
+      </c>
+      <c r="U15" s="11">
         <f t="shared" si="1"/>
-        <v>0.12223099629457561</v>
-      </c>
-      <c r="V15" s="20">
+        <v>6.1115498147287804E-2</v>
+      </c>
+      <c r="V15" s="11">
+        <f>(G15+H15+I15)/$T15</f>
+        <v>782.27837628528391</v>
+      </c>
+      <c r="W15" s="11"/>
+      <c r="X15" s="9">
+        <f t="shared" si="3"/>
+        <v>1564.5567525705678</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>12800</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>12800</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16" thickBot="1">
+      <c r="A16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="22"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17">
+        <v>1000</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O17" s="9">
+        <v>2</v>
+      </c>
+      <c r="P17" s="12">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>50</v>
+      </c>
+      <c r="R17" s="9">
+        <v>50</v>
+      </c>
+      <c r="S17" s="12">
+        <v>3000</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="0"/>
+        <v>2.2850177816344512</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.10940833896757574</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="9">
+        <f>J17/$T17</f>
+        <v>437.63335587030298</v>
+      </c>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="11">
+        <f t="shared" ref="Z17:Z21" si="9">J17/E17</f>
+        <v>4000</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" ref="AA17:AA21" si="10">J17/E17</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>6.5784000000000002</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18">
+        <v>16000</v>
+      </c>
+      <c r="K18">
+        <v>16000</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O18" s="9">
+        <v>2</v>
+      </c>
+      <c r="P18" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>200</v>
+      </c>
+      <c r="R18" s="9">
+        <v>200</v>
+      </c>
+      <c r="S18" s="12">
+        <v>2900</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="0"/>
+        <v>32.29164548808609</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.10064522729877851</v>
+      </c>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="9">
+        <f>J18/$T18</f>
+        <v>495.48419593244807</v>
+      </c>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="11">
+        <f>J18/E18</f>
+        <v>4923.0769230769229</v>
+      </c>
+      <c r="AA18" s="9">
+        <f>J18/E18</f>
+        <v>4923.0769230769229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.306</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19">
+        <v>8000</v>
+      </c>
+      <c r="K19">
+        <v>8000</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O19" s="9">
+        <v>2</v>
+      </c>
+      <c r="P19" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>200</v>
+      </c>
+      <c r="R19" s="9">
+        <v>200</v>
+      </c>
+      <c r="S19" s="12">
+        <v>2900</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="0"/>
+        <v>16.228289551199776</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.10783638007436344</v>
+      </c>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="9">
+        <f t="shared" ref="X19:X21" si="11">J19/$T19</f>
+        <v>492.96630891137573</v>
+      </c>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="11">
         <f t="shared" si="9"/>
-        <v>1564.5567525705678</v>
-      </c>
-      <c r="W15" s="15">
-        <f t="shared" si="3"/>
-        <v>3129.1135051411356</v>
-      </c>
-      <c r="X15" s="20">
-        <v>12800</v>
-      </c>
-      <c r="Y15" s="20">
-        <v>12800</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="M16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
-      <c r="T16" s="9"/>
-      <c r="W16" s="10"/>
-      <c r="Z16" s="10"/>
-    </row>
-    <row r="17" spans="3:26">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="M17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="T17" s="9"/>
-      <c r="W17" s="10"/>
-      <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="3:26">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="M18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="T18" s="9"/>
-      <c r="W18" s="10"/>
-      <c r="Z18" s="10"/>
-    </row>
-    <row r="19" spans="3:26">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="M19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-      <c r="T19" s="9"/>
-      <c r="W19" s="10"/>
-      <c r="Z19" s="10"/>
-    </row>
-    <row r="20" spans="3:26">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="M20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="T20" s="9"/>
-      <c r="W20" s="10"/>
-      <c r="Z20" s="10"/>
-    </row>
-    <row r="21" spans="3:26">
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="M21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-      <c r="T21" s="9"/>
-      <c r="W21" s="10"/>
-      <c r="Z21" s="10"/>
-    </row>
-    <row r="22" spans="3:26">
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="M22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
-      <c r="T22" s="9"/>
-      <c r="W22" s="10"/>
-      <c r="Z22" s="10"/>
-    </row>
-    <row r="23" spans="3:26">
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="M23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
-      <c r="T23" s="9"/>
-      <c r="W23" s="10"/>
-      <c r="Z23" s="10"/>
-    </row>
-    <row r="24" spans="3:26">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="M24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
-      <c r="T24" s="9"/>
-      <c r="W24" s="10"/>
-      <c r="Z24" s="10"/>
-    </row>
-    <row r="25" spans="3:26">
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="10"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="10"/>
-      <c r="T25" s="9"/>
-      <c r="W25" s="10"/>
-      <c r="Z25" s="10"/>
-    </row>
-    <row r="26" spans="3:26">
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="M26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
-      <c r="T26" s="9"/>
-      <c r="W26" s="10"/>
-      <c r="Z26" s="10"/>
-    </row>
-    <row r="27" spans="3:26">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="M27" s="9"/>
-      <c r="O27" s="10"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
-      <c r="T27" s="9"/>
-      <c r="W27" s="10"/>
-      <c r="Z27" s="10"/>
-    </row>
-    <row r="28" spans="3:26">
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="M28" s="9"/>
-      <c r="O28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="T28" s="9"/>
-      <c r="W28" s="10"/>
-      <c r="Z28" s="10"/>
-    </row>
-    <row r="29" spans="3:26">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="M29" s="9"/>
-      <c r="O29" s="10"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="10"/>
-      <c r="T29" s="9"/>
-      <c r="W29" s="10"/>
-      <c r="Z29" s="10"/>
-    </row>
-    <row r="30" spans="3:26">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="M30" s="9"/>
-      <c r="O30" s="10"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="10"/>
-      <c r="T30" s="9"/>
-      <c r="W30" s="10"/>
-      <c r="Z30" s="10"/>
-    </row>
-    <row r="31" spans="3:26">
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="M31" s="9"/>
-      <c r="O31" s="10"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="T31" s="9"/>
-      <c r="W31" s="10"/>
-      <c r="Z31" s="10"/>
-    </row>
-    <row r="32" spans="3:26">
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="M32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="10"/>
-      <c r="T32" s="9"/>
-      <c r="W32" s="10"/>
-      <c r="Z32" s="10"/>
-    </row>
-    <row r="33" spans="3:26">
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="M33" s="9"/>
-      <c r="O33" s="10"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="10"/>
-      <c r="T33" s="9"/>
-      <c r="W33" s="10"/>
-      <c r="Z33" s="10"/>
-    </row>
-    <row r="34" spans="3:26">
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="M34" s="9"/>
-      <c r="O34" s="10"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="10"/>
-      <c r="T34" s="9"/>
-      <c r="W34" s="10"/>
-      <c r="Z34" s="10"/>
-    </row>
-    <row r="35" spans="3:26">
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="M35" s="9"/>
-      <c r="O35" s="10"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="10"/>
-      <c r="T35" s="9"/>
-      <c r="W35" s="10"/>
-      <c r="Z35" s="10"/>
-    </row>
-    <row r="36" spans="3:26">
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="M36" s="9"/>
-      <c r="O36" s="10"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="10"/>
-      <c r="T36" s="9"/>
-      <c r="W36" s="10"/>
-      <c r="Z36" s="10"/>
-    </row>
-    <row r="37" spans="3:26">
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="M37" s="9"/>
-      <c r="O37" s="10"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="10"/>
-      <c r="T37" s="9"/>
-      <c r="W37" s="10"/>
-      <c r="Z37" s="10"/>
-    </row>
-    <row r="38" spans="3:26">
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="M38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="10"/>
-      <c r="T38" s="9"/>
-      <c r="W38" s="10"/>
-      <c r="Z38" s="10"/>
-    </row>
-    <row r="39" spans="3:26">
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="M39" s="9"/>
-      <c r="O39" s="10"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="10"/>
-      <c r="T39" s="9"/>
-      <c r="W39" s="10"/>
-      <c r="Z39" s="10"/>
-    </row>
-    <row r="40" spans="3:26">
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="M40" s="9"/>
-      <c r="O40" s="10"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="10"/>
-      <c r="T40" s="9"/>
-      <c r="W40" s="10"/>
-      <c r="Z40" s="10"/>
-    </row>
-    <row r="41" spans="3:26">
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="M41" s="9"/>
-      <c r="O41" s="10"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="10"/>
-      <c r="T41" s="9"/>
-      <c r="W41" s="10"/>
-      <c r="Z41" s="10"/>
-    </row>
-    <row r="42" spans="3:26">
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="M42" s="9"/>
-      <c r="O42" s="10"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="10"/>
-      <c r="T42" s="9"/>
-      <c r="W42" s="10"/>
-      <c r="Z42" s="10"/>
-    </row>
-    <row r="43" spans="3:26">
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="M43" s="9"/>
-      <c r="O43" s="10"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="10"/>
-      <c r="T43" s="9"/>
-      <c r="W43" s="10"/>
-      <c r="Z43" s="10"/>
-    </row>
-    <row r="44" spans="3:26">
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="M44" s="9"/>
-      <c r="O44" s="10"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="10"/>
-      <c r="T44" s="9"/>
-      <c r="W44" s="10"/>
-      <c r="Z44" s="10"/>
-    </row>
-    <row r="45" spans="3:26">
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="M45" s="9"/>
-      <c r="O45" s="10"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="10"/>
-      <c r="T45" s="9"/>
-      <c r="W45" s="10"/>
-      <c r="Z45" s="10"/>
-    </row>
-    <row r="46" spans="3:26">
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="M46" s="9"/>
-      <c r="O46" s="10"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="10"/>
-      <c r="T46" s="9"/>
-      <c r="W46" s="10"/>
-      <c r="Z46" s="10"/>
-    </row>
-    <row r="47" spans="3:26">
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="M47" s="9"/>
-      <c r="O47" s="10"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="10"/>
-      <c r="T47" s="9"/>
-      <c r="W47" s="10"/>
-      <c r="Z47" s="10"/>
-    </row>
-    <row r="48" spans="3:26">
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="M48" s="9"/>
-      <c r="O48" s="10"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="10"/>
-      <c r="T48" s="9"/>
-      <c r="W48" s="10"/>
-      <c r="Z48" s="10"/>
-    </row>
-    <row r="49" spans="3:26">
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="M49" s="9"/>
-      <c r="O49" s="10"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="10"/>
-      <c r="T49" s="9"/>
-      <c r="W49" s="10"/>
-      <c r="Z49" s="10"/>
-    </row>
-    <row r="50" spans="3:26">
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="M50" s="9"/>
-      <c r="O50" s="10"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="10"/>
-      <c r="T50" s="9"/>
-      <c r="W50" s="10"/>
-      <c r="Z50" s="10"/>
+        <v>4571.4285714285716</v>
+      </c>
+      <c r="AA19" s="9">
+        <f t="shared" si="10"/>
+        <v>4571.4285714285716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20">
+        <v>4000</v>
+      </c>
+      <c r="K20">
+        <v>4000</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="9">
+        <v>2</v>
+      </c>
+      <c r="P20" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>200</v>
+      </c>
+      <c r="R20" s="9">
+        <v>200</v>
+      </c>
+      <c r="S20" s="12">
+        <v>2900</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9034699298143245</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="1"/>
+        <v>0.11231576092051274</v>
+      </c>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="9">
+        <f t="shared" si="11"/>
+        <v>449.26304368205098</v>
+      </c>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="11">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="16" thickBot="1">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+      <c r="K21">
+        <v>2000</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O21" s="9">
+        <v>2</v>
+      </c>
+      <c r="P21" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>200</v>
+      </c>
+      <c r="R21" s="9">
+        <v>200</v>
+      </c>
+      <c r="S21" s="12">
+        <v>2900</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3929200658769769</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18420711006006404</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="9">
+        <f t="shared" si="11"/>
+        <v>589.4627521922049</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="AA21" s="9">
+        <f t="shared" si="10"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="16" thickBot="1">
+      <c r="A22" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="34"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12">
+        <v>1648.5</v>
+      </c>
+      <c r="H23" s="37">
+        <v>2120.5</v>
+      </c>
+      <c r="K23" s="9">
+        <f>G23+H23+I23+J23</f>
+        <v>3769</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O23" s="7">
+        <v>2</v>
+      </c>
+      <c r="P23" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>200</v>
+      </c>
+      <c r="R23" s="7">
+        <v>200</v>
+      </c>
+      <c r="S23" s="12">
+        <v>2900</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="0"/>
+        <v>18.162332528565994</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="1"/>
+        <v>9.6353262844823109E-2</v>
+      </c>
+      <c r="V23">
+        <f>G23/$T23</f>
+        <v>90.764773599823371</v>
+      </c>
+      <c r="W23">
+        <f>H23/$T23</f>
+        <v>116.75262506425567</v>
+      </c>
+      <c r="X23" s="7">
+        <f>(G23+H23)/$T23</f>
+        <v>207.51739866407902</v>
+      </c>
+      <c r="Y23">
+        <f>G23/E23</f>
+        <v>942</v>
+      </c>
+      <c r="Z23" s="11">
+        <f>H23/E23</f>
+        <v>1211.7142857142858</v>
+      </c>
+      <c r="AA23" s="7">
+        <f>K23/E23</f>
+        <v>2153.7142857142858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12">
+        <v>3297</v>
+      </c>
+      <c r="H24" s="37">
+        <v>4241</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" ref="K24:K29" si="12">G24+H24+I24+J24</f>
+        <v>7538</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2</v>
+      </c>
+      <c r="P24" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>200</v>
+      </c>
+      <c r="R24" s="7">
+        <v>200</v>
+      </c>
+      <c r="S24" s="12">
+        <v>2900</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="0"/>
+        <v>36.324665057131988</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="1"/>
+        <v>9.6353262844823109E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ref="V24:V34" si="13">G24/$T24</f>
+        <v>90.764773599823371</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W34" si="14">H24/$T24</f>
+        <v>116.75262506425567</v>
+      </c>
+      <c r="X24" s="7">
+        <f t="shared" ref="X24:X34" si="15">(G24+H24)/$T24</f>
+        <v>207.51739866407902</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ref="Y24:Y34" si="16">G24/E24</f>
+        <v>942</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" ref="Z24:Z34" si="17">H24/E24</f>
+        <v>1211.7142857142858</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" ref="AA24:AA34" si="18">K24/E24</f>
+        <v>2153.7142857142858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="39">
+        <v>3.75</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="12">
+        <v>2500</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="12"/>
+        <v>2500</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2</v>
+      </c>
+      <c r="P25" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>100</v>
+      </c>
+      <c r="R25" s="7">
+        <v>100</v>
+      </c>
+      <c r="S25" s="12">
+        <v>3400</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" si="0"/>
+        <v>13.695380474243004</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="1"/>
+        <v>3.6508660780936564E-2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="13"/>
+        <v>182.54330390468283</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="15"/>
+        <v>182.54330390468283</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>5000</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="18"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="12">
+        <v>10731</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="12"/>
+        <v>10731</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2</v>
+      </c>
+      <c r="P26" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>200</v>
+      </c>
+      <c r="R26" s="7">
+        <v>200</v>
+      </c>
+      <c r="S26" s="12">
+        <v>3400</v>
+      </c>
+      <c r="T26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W26" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X26" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="16"/>
+        <v>13215.51724137931</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="18"/>
+        <v>13215.51724137931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="K27" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="O27" s="7"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
+      <c r="T27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="K28" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="O28" s="7"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="7"/>
+      <c r="T28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="K29" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="O29" s="7"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="7"/>
+      <c r="T29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="M30" s="6"/>
+      <c r="O30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="7"/>
+      <c r="T30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="6"/>
+      <c r="O31" s="7"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="7"/>
+      <c r="T31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z31" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="6"/>
+      <c r="O32" s="7"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="7"/>
+      <c r="T32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z32" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA32" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="M33" s="6"/>
+      <c r="O33" s="7"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="7"/>
+      <c r="T33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X33" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y33" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z33" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA33" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="M34" s="6"/>
+      <c r="O34" s="7"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="7"/>
+      <c r="T34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y34" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z34" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA34" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="M35" s="6"/>
+      <c r="O35" s="7"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="7"/>
+      <c r="T35" s="6"/>
+      <c r="X35" s="7"/>
+      <c r="AA35" s="7"/>
+    </row>
+    <row r="36" spans="3:27">
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="M36" s="6"/>
+      <c r="O36" s="7"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="7"/>
+      <c r="T36" s="6"/>
+      <c r="X36" s="7"/>
+      <c r="AA36" s="7"/>
+    </row>
+    <row r="37" spans="3:27">
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="M37" s="6"/>
+      <c r="O37" s="7"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="7"/>
+      <c r="T37" s="6"/>
+      <c r="X37" s="7"/>
+      <c r="AA37" s="7"/>
+    </row>
+    <row r="38" spans="3:27">
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="M38" s="6"/>
+      <c r="O38" s="7"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+      <c r="T38" s="6"/>
+      <c r="X38" s="7"/>
+      <c r="AA38" s="7"/>
+    </row>
+    <row r="39" spans="3:27">
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="M39" s="6"/>
+      <c r="O39" s="7"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="7"/>
+      <c r="T39" s="6"/>
+      <c r="X39" s="7"/>
+      <c r="AA39" s="7"/>
+    </row>
+    <row r="40" spans="3:27">
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="M40" s="6"/>
+      <c r="O40" s="7"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="7"/>
+      <c r="T40" s="6"/>
+      <c r="X40" s="7"/>
+      <c r="AA40" s="7"/>
+    </row>
+    <row r="41" spans="3:27">
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="M41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="7"/>
+      <c r="T41" s="6"/>
+      <c r="X41" s="7"/>
+      <c r="AA41" s="7"/>
+    </row>
+    <row r="42" spans="3:27">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="M42" s="6"/>
+      <c r="O42" s="7"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="7"/>
+      <c r="T42" s="6"/>
+      <c r="X42" s="7"/>
+      <c r="AA42" s="7"/>
+    </row>
+    <row r="43" spans="3:27">
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="M43" s="6"/>
+      <c r="O43" s="7"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="7"/>
+      <c r="T43" s="6"/>
+      <c r="X43" s="7"/>
+      <c r="AA43" s="7"/>
+    </row>
+    <row r="44" spans="3:27">
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="M44" s="6"/>
+      <c r="O44" s="7"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="7"/>
+      <c r="T44" s="6"/>
+      <c r="X44" s="7"/>
+      <c r="AA44" s="7"/>
+    </row>
+    <row r="45" spans="3:27">
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="M45" s="6"/>
+      <c r="O45" s="7"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="7"/>
+      <c r="T45" s="6"/>
+      <c r="X45" s="7"/>
+      <c r="AA45" s="7"/>
+    </row>
+    <row r="46" spans="3:27">
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="M46" s="6"/>
+      <c r="O46" s="7"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="7"/>
+      <c r="T46" s="6"/>
+      <c r="X46" s="7"/>
+      <c r="AA46" s="7"/>
+    </row>
+    <row r="47" spans="3:27">
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="M47" s="6"/>
+      <c r="O47" s="7"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="7"/>
+      <c r="T47" s="6"/>
+      <c r="X47" s="7"/>
+      <c r="AA47" s="7"/>
+    </row>
+    <row r="48" spans="3:27">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="M48" s="6"/>
+      <c r="O48" s="7"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="7"/>
+      <c r="T48" s="6"/>
+      <c r="X48" s="7"/>
+      <c r="AA48" s="7"/>
+    </row>
+    <row r="49" spans="3:27">
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="M49" s="6"/>
+      <c r="O49" s="7"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="7"/>
+      <c r="T49" s="6"/>
+      <c r="X49" s="7"/>
+      <c r="AA49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Z1"/>
+  <mergeCells count="11">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>

--- a/Source/CalcsAndModels/[IN DEVELOPMENT] Tanks for Mods/ModTanks.xlsx
+++ b/Source/CalcsAndModels/[IN DEVELOPMENT] Tanks for Mods/ModTanks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Mass</t>
   </si>
@@ -223,13 +223,31 @@
   </si>
   <si>
     <t>rad</t>
+  </si>
+  <si>
+    <t>FNLiquidWaterTank</t>
+  </si>
+  <si>
+    <t>Water Storage Tank</t>
+  </si>
+  <si>
+    <t>FNAntimaterBottle</t>
+  </si>
+  <si>
+    <t>Small Antimatter Bottle</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Extraplanetary Launchpad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,8 +298,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -511,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -613,8 +644,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -673,8 +708,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -725,6 +773,8 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -775,6 +825,8 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1106,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2956,96 +3008,165 @@
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.81200000000000006</v>
+      </c>
       <c r="F27" s="7"/>
+      <c r="G27" s="12">
+        <v>7308</v>
+      </c>
       <c r="K27" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="O27" s="7"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="7"/>
-      <c r="T27" s="8">
+        <v>7308</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O27" s="7">
+        <v>2</v>
+      </c>
+      <c r="P27" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>200</v>
+      </c>
+      <c r="R27" s="7">
+        <v>200</v>
+      </c>
+      <c r="S27" s="12">
+        <v>3400</v>
+      </c>
+      <c r="T27" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U27" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V27" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W27" t="e">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X27" s="7" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="11" t="e">
+        <v>9000</v>
+      </c>
+      <c r="Z27" s="11">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
       <c r="F28" s="7"/>
+      <c r="G28" s="12">
+        <v>1E-3</v>
+      </c>
       <c r="K28" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="7"/>
-      <c r="T28" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M28" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="N28" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="O28" s="42">
+        <v>2</v>
+      </c>
+      <c r="P28" s="41">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="40">
+        <v>200</v>
+      </c>
+      <c r="R28" s="42">
+        <v>200</v>
+      </c>
+      <c r="S28" s="41">
+        <v>3400</v>
+      </c>
+      <c r="T28" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U28" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V28" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W28" t="e">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X28" s="7" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="11" t="e">
+        <v>1E-3</v>
+      </c>
+      <c r="Z28" s="11">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="F29" s="7"/>
@@ -3091,6 +3212,9 @@
       </c>
     </row>
     <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="F30" s="7"/>
@@ -3133,6 +3257,9 @@
       </c>
     </row>
     <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="F31" s="7"/>
@@ -3175,6 +3302,9 @@
       </c>
     </row>
     <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="F32" s="7"/>
@@ -3216,7 +3346,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="3:27">
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="F33" s="7"/>
@@ -3258,7 +3391,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="3:27">
+    <row r="34" spans="1:27" ht="16" thickBot="1">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="F34" s="7"/>
@@ -3300,20 +3436,38 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="3:27">
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="M35" s="6"/>
-      <c r="O35" s="7"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="7"/>
-      <c r="T35" s="6"/>
-      <c r="X35" s="7"/>
-      <c r="AA35" s="7"/>
-    </row>
-    <row r="36" spans="3:27">
+    <row r="35" spans="1:27" ht="16" thickBot="1">
+      <c r="A35" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="46"/>
+    </row>
+    <row r="36" spans="1:27">
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="F36" s="7"/>
@@ -3326,7 +3480,7 @@
       <c r="X36" s="7"/>
       <c r="AA36" s="7"/>
     </row>
-    <row r="37" spans="3:27">
+    <row r="37" spans="1:27">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="F37" s="7"/>
@@ -3339,7 +3493,7 @@
       <c r="X37" s="7"/>
       <c r="AA37" s="7"/>
     </row>
-    <row r="38" spans="3:27">
+    <row r="38" spans="1:27">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="F38" s="7"/>
@@ -3352,7 +3506,7 @@
       <c r="X38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39" spans="3:27">
+    <row r="39" spans="1:27">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="F39" s="7"/>
@@ -3365,7 +3519,7 @@
       <c r="X39" s="7"/>
       <c r="AA39" s="7"/>
     </row>
-    <row r="40" spans="3:27">
+    <row r="40" spans="1:27">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="F40" s="7"/>
@@ -3378,7 +3532,7 @@
       <c r="X40" s="7"/>
       <c r="AA40" s="7"/>
     </row>
-    <row r="41" spans="3:27">
+    <row r="41" spans="1:27">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="F41" s="7"/>
@@ -3391,7 +3545,7 @@
       <c r="X41" s="7"/>
       <c r="AA41" s="7"/>
     </row>
-    <row r="42" spans="3:27">
+    <row r="42" spans="1:27">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="F42" s="7"/>
@@ -3404,7 +3558,7 @@
       <c r="X42" s="7"/>
       <c r="AA42" s="7"/>
     </row>
-    <row r="43" spans="3:27">
+    <row r="43" spans="1:27">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="F43" s="7"/>
@@ -3417,7 +3571,7 @@
       <c r="X43" s="7"/>
       <c r="AA43" s="7"/>
     </row>
-    <row r="44" spans="3:27">
+    <row r="44" spans="1:27">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="F44" s="7"/>
@@ -3430,7 +3584,7 @@
       <c r="X44" s="7"/>
       <c r="AA44" s="7"/>
     </row>
-    <row r="45" spans="3:27">
+    <row r="45" spans="1:27">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="F45" s="7"/>
@@ -3443,7 +3597,7 @@
       <c r="X45" s="7"/>
       <c r="AA45" s="7"/>
     </row>
-    <row r="46" spans="3:27">
+    <row r="46" spans="1:27">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="F46" s="7"/>
@@ -3456,7 +3610,7 @@
       <c r="X46" s="7"/>
       <c r="AA46" s="7"/>
     </row>
-    <row r="47" spans="3:27">
+    <row r="47" spans="1:27">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="F47" s="7"/>
@@ -3469,7 +3623,7 @@
       <c r="X47" s="7"/>
       <c r="AA47" s="7"/>
     </row>
-    <row r="48" spans="3:27">
+    <row r="48" spans="1:27">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="F48" s="7"/>
@@ -3496,8 +3650,9 @@
       <c r="AA49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="A3:B3"/>
